--- a/covid_19_all/CovidCount.xlsx
+++ b/covid_19_all/CovidCount.xlsx
@@ -6,10 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20210927" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20210926" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20210925" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20210924" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20210928" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20210927" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20210926" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20210925" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20210924" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -433,196 +434,196 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>강남구7943</t>
+          <t>강남구7997</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>강동구3835</t>
+          <t>강동구3860</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>강북구2473</t>
+          <t>강북구2499</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>강서구4504</t>
+          <t>강서구4560</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>관악구5007</t>
+          <t>관악구5030</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>광진구3609</t>
+          <t>광진구3651</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>구로구4502</t>
+          <t>구로구4573</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>금천구2085</t>
+          <t>금천구2106</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>노원구3603</t>
+          <t>노원구3640</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>도봉구2557</t>
+          <t>도봉구2588</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>동대문구3779</t>
+          <t>동대문구3852</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>동작구4168</t>
+          <t>동작구4191</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>마포구3403</t>
+          <t>마포구3419</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서대문구2665</t>
+          <t>서대문구2683</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>서초구5406</t>
+          <t>서초구5429</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>성동구2815</t>
+          <t>성동구2827</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>성북구3563</t>
+          <t>성북구3615</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>송파구7427</t>
+          <t>송파구7486</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>양천구3167</t>
+          <t>양천구3197</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>영등포구4646</t>
+          <t>영등포구4678</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>용산구2878</t>
+          <t>용산구2907</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>은평구4267</t>
+          <t>은평구4283</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>종로구2276</t>
+          <t>종로구2295</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>중구3380</t>
+          <t>중구3421</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>중랑구3697</t>
+          <t>중랑구3710</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>강서구452</t>
+          <t>강서구453</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>금정구749</t>
+          <t>금정구751</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>기장군558</t>
+          <t>기장군561</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>동구695</t>
+          <t>동구698</t>
         </is>
       </c>
     </row>
@@ -650,7 +651,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>부산진구1231</t>
+          <t>부산진구1236</t>
         </is>
       </c>
     </row>
@@ -664,14 +665,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>사상구774</t>
+          <t>사상구776</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>사하구939</t>
+          <t>사하구945</t>
         </is>
       </c>
     </row>
@@ -692,14 +693,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>연제구1122</t>
+          <t>연제구1125</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>영도구473</t>
+          <t>영도구474</t>
         </is>
       </c>
     </row>
@@ -713,56 +714,56 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>해운대구1164</t>
+          <t>해운대구1167</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>남구2498</t>
+          <t>남구2502</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>달서구3022</t>
+          <t>달서구3074</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>달성군1424</t>
+          <t>달성군1459</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>동구1843</t>
+          <t>동구1851</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>북구1844</t>
+          <t>북구1847</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>서구1843</t>
+          <t>서구1856</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>수성구1982</t>
+          <t>수성구1993</t>
         </is>
       </c>
     </row>
@@ -776,21 +777,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>강화군195</t>
+          <t>강화군197</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>계양구1483</t>
+          <t>계양구1494</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>남동구2273</t>
+          <t>남동구2296</t>
         </is>
       </c>
     </row>
@@ -804,49 +805,49 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>미추홀구2160</t>
+          <t>미추홀구2181</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>부평구2830</t>
+          <t>부평구2852</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>서구2882</t>
+          <t>서구2905</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>연수구2362</t>
+          <t>연수구2372</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>중구833</t>
+          <t>중구844</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>광산구1715</t>
+          <t>광산구1734</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>남구527</t>
+          <t>남구528</t>
         </is>
       </c>
     </row>
@@ -860,91 +861,91 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>북구1224</t>
+          <t>북구1229</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>서구1054</t>
+          <t>서구1057</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>대덕구778</t>
+          <t>대덕구781</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>동구1003</t>
+          <t>동구1017</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>서구1945</t>
+          <t>서구1963</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>유성구1633</t>
+          <t>유성구1647</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>중구1507</t>
+          <t>중구1512</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>남구1752</t>
+          <t>남구1761</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>동구786</t>
+          <t>동구788</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>북구924</t>
+          <t>북구926</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>울주군548</t>
+          <t>울주군551</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>중구1084</t>
+          <t>중구1085</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>세종1211</t>
+          <t>세종1215</t>
         </is>
       </c>
     </row>
@@ -958,21 +959,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>고양시덕양구2673</t>
+          <t>고양시덕양구2700</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>고양시일산동구2174</t>
+          <t>고양시일산동구2179</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>고양시일산서구1631</t>
+          <t>고양시일산서구1640</t>
         </is>
       </c>
     </row>
@@ -986,168 +987,168 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>광명시2391</t>
+          <t>광명시2400</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>광주시2888</t>
+          <t>광주시2914</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>구리시1634</t>
+          <t>구리시1653</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>군포시1880</t>
+          <t>군포시1885</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>김포시2715</t>
+          <t>김포시2742</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>남양주시4492</t>
+          <t>남양주시4529</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>동두천시1016</t>
+          <t>동두천시1023</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>부천시5279</t>
+          <t>부천시5310</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>성남시분당구3641</t>
+          <t>성남시분당구3677</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>성남시수정구2024</t>
+          <t>성남시수정구2042</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>성남시중원구1881</t>
+          <t>성남시중원구1893</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>수원시권선구1508</t>
+          <t>수원시권선구1525</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>수원시영통구1696</t>
+          <t>수원시영통구1711</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>수원시장안구1478</t>
+          <t>수원시장안구1491</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>수원시팔달구1577</t>
+          <t>수원시팔달구1594</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>시흥시3169</t>
+          <t>시흥시3202</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>안산시단원구3223</t>
+          <t>안산시단원구3267</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>안산시상록구2263</t>
+          <t>안산시상록구2290</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>안성시972</t>
+          <t>안성시975</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>안양시동안구2026</t>
+          <t>안양시동안구2047</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>안양시만안구1673</t>
+          <t>안양시만안구1681</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>양주시1513</t>
+          <t>양주시1516</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>양평군566</t>
+          <t>양평군569</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>여주시685</t>
+          <t>여주시692</t>
         </is>
       </c>
     </row>
@@ -1161,28 +1162,28 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>오산시1115</t>
+          <t>오산시1118</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>용인시기흥구2357</t>
+          <t>용인시기흥구2370</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>용인시수지구2400</t>
+          <t>용인시수지구2414</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>용인시처인구1348</t>
+          <t>용인시처인구1384</t>
         </is>
       </c>
     </row>
@@ -1196,56 +1197,56 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>의정부시2891</t>
+          <t>의정부시2935</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>이천시1848</t>
+          <t>이천시1862</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>파주시2280</t>
+          <t>파주시2293</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>평택시4916</t>
+          <t>평택시4952</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>포천시957</t>
+          <t>포천시968</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>하남시2002</t>
+          <t>하남시2020</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>화성시4951</t>
+          <t>화성시4991</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>강릉시1160</t>
+          <t>강릉시1164</t>
         </is>
       </c>
     </row>
@@ -1266,14 +1267,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>삼척시84</t>
+          <t>삼척시85</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>속초시633</t>
+          <t>속초시635</t>
         </is>
       </c>
     </row>
@@ -1294,28 +1295,28 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>영월군101</t>
+          <t>영월군102</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>원주시1371</t>
+          <t>원주시1377</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>인제군101</t>
+          <t>인제군105</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>정선군113</t>
+          <t>정선군114</t>
         </is>
       </c>
     </row>
@@ -1329,21 +1330,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>춘천시794</t>
+          <t>춘천시796</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>태백시106</t>
+          <t>태백시107</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>평창군208</t>
+          <t>평창군211</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1365,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>횡성군100</t>
+          <t>횡성군101</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>괴산군190</t>
+          <t>괴산군191</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1393,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>영동군134</t>
+          <t>영동군136</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1407,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>음성군684</t>
+          <t>음성군699</t>
         </is>
       </c>
     </row>
@@ -1427,21 +1428,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>진천군627</t>
+          <t>진천군642</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>청주시상당구592</t>
+          <t>청주시상당구597</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>청주시서원구891</t>
+          <t>청주시서원구895</t>
         </is>
       </c>
     </row>
@@ -1455,14 +1456,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>청주시흥덕구834</t>
+          <t>청주시흥덕구847</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>충주시839</t>
+          <t>충주시843</t>
         </is>
       </c>
     </row>
@@ -1490,35 +1491,35 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>논산시632</t>
+          <t>논산시635</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>당진시870</t>
+          <t>당진시874</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>보령시258</t>
+          <t>보령시259</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>부여군344</t>
+          <t>부여군352</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>서산시696</t>
+          <t>서산시699</t>
         </is>
       </c>
     </row>
@@ -1532,28 +1533,28 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>아산시1650</t>
+          <t>아산시1656</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>예산군191</t>
+          <t>예산군195</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>천안시동남구1134</t>
+          <t>천안시동남구1139</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>천안시서북구1976</t>
+          <t>천안시서북구1989</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1575,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>홍성군235</t>
+          <t>홍성군236</t>
         </is>
       </c>
     </row>
@@ -1588,21 +1589,21 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>군산시703</t>
+          <t>군산시707</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>김제시247</t>
+          <t>김제시250</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>남원시133</t>
+          <t>남원시144</t>
         </is>
       </c>
     </row>
@@ -1616,14 +1617,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>부안군115</t>
+          <t>부안군117</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>순창군190</t>
+          <t>순창군191</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1638,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>익산시757</t>
+          <t>익산시762</t>
         </is>
       </c>
     </row>
@@ -1658,35 +1659,35 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>전주시덕진구57</t>
+          <t>전주시덕진구58</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>전주시완산구1613</t>
+          <t>전주시완산구1625</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>정읍시160</t>
+          <t>정읍시162</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>진안군34</t>
+          <t>진안군35</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>강진군14</t>
+          <t>강진군15</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1708,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>광양시293</t>
+          <t>광양시294</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1722,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>나주시184</t>
+          <t>나주시187</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1736,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>목포시258</t>
+          <t>목포시262</t>
         </is>
       </c>
     </row>
@@ -1756,21 +1757,21 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>순천시719</t>
+          <t>순천시721</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>신안군26</t>
+          <t>신안군27</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>여수시579</t>
+          <t>여수시583</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1785,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>영암군110</t>
+          <t>영암군111</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1806,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>장흥군50</t>
+          <t>장흥군51</t>
         </is>
       </c>
     </row>
@@ -1840,28 +1841,28 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>경산시1726</t>
+          <t>경산시1736</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>경주시1017</t>
+          <t>경주시1024</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>고령군90</t>
+          <t>고령군94</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>구미시1328</t>
+          <t>구미시1331</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1876,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>김천시534</t>
+          <t>김천시536</t>
         </is>
       </c>
     </row>
@@ -1896,21 +1897,21 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>상주시190</t>
+          <t>상주시192</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>성주군72</t>
+          <t>성주군74</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>안동시333</t>
+          <t>안동시336</t>
         </is>
       </c>
     </row>
@@ -1931,14 +1932,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>영주시191</t>
+          <t>영주시193</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>영천시168</t>
+          <t>영천시169</t>
         </is>
       </c>
     </row>
@@ -1987,28 +1988,28 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>칠곡군287</t>
+          <t>칠곡군294</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>포항시남구601</t>
+          <t>포항시남구617</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>포항시북구670</t>
+          <t>포항시북구686</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>거제시892</t>
+          <t>거제시898</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2030,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>김해시2455</t>
+          <t>김해시2482</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2051,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>사천시420</t>
+          <t>사천시421</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2065,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>양산시948</t>
+          <t>양산시952</t>
         </is>
       </c>
     </row>
@@ -2078,21 +2079,21 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>진주시1716</t>
+          <t>진주시1720</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>창녕군315</t>
+          <t>창녕군319</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>창원시마산합포구1031</t>
+          <t>창원시마산합포구1032</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>창원시성산구736</t>
+          <t>창원시성산구751</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2121,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>창원시진해구394</t>
+          <t>창원시진해구398</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2135,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>하동군115</t>
+          <t>하동군116</t>
         </is>
       </c>
     </row>
@@ -2162,14 +2163,14 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>서귀포시535</t>
+          <t>서귀포시536</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>제주시2313</t>
+          <t>제주시2319</t>
         </is>
       </c>
     </row>
@@ -2179,6 +2180,1768 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A249"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>강남구7943</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>강동구3835</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>강북구2473</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>강서구4504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>관악구5007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>광진구3609</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>구로구4502</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>금천구2085</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>노원구3603</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>도봉구2557</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>동대문구3779</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>동작구4168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>마포구3403</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>서대문구2665</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>서초구5406</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>성동구2815</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>성북구3563</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>송파구7427</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>양천구3167</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>영등포구4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>용산구2878</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>은평구4267</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>종로구2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>중구3380</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>중랑구3697</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>강서구452</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>금정구749</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>기장군558</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>남구963</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>동구695</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>동래구958</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>부산진구1231</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>북구675</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>사상구774</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>사하구939</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>서구841</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>수영구691</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>연제구1122</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>영도구473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>중구306</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>해운대구1164</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>남구2498</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>달서구3022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>달성군1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>동구1843</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>북구1844</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>서구1843</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>수성구1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>중구735</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>강화군195</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>계양구1483</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>남동구2273</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>동구359</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>미추홀구2160</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>부평구2830</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>서구2882</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>연수구2362</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>중구833</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>광산구1715</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>남구527</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>동구381</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>북구1224</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>서구1054</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>대덕구778</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>동구1003</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>서구1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>유성구1633</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>중구1507</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>남구1752</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>동구786</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>북구924</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>울주군548</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>중구1084</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>세종1211</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>가평군347</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>고양시덕양구2673</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>고양시일산동구2174</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>고양시일산서구1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>과천시375</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>광명시2391</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>광주시2888</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>구리시1634</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>군포시1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>김포시2715</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>남양주시4492</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>동두천시1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>부천시5279</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>성남시분당구3641</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>성남시수정구2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>성남시중원구1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>수원시권선구1508</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>수원시영통구1696</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>수원시장안구1478</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>수원시팔달구1577</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>시흥시3169</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>안산시단원구3223</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>안산시상록구2263</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>안성시972</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>안양시동안구2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>안양시만안구1673</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>양주시1513</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>양평군566</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>여주시685</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>연천군334</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>오산시1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>용인시기흥구2357</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>용인시수지구2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>용인시처인구1348</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>의왕시745</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>의정부시2891</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>이천시1848</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>파주시2280</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>평택시4916</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>포천시957</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>하남시2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>화성시4951</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>강릉시1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>고성군78</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>동해시557</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>삼척시84</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>속초시633</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>양구군64</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>양양군168</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>영월군101</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>원주시1371</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>인제군101</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>정선군113</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>철원군293</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>춘천시794</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>태백시106</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>평창군208</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>홍천군341</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>화천군87</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>횡성군100</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>괴산군190</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>단양군68</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>보은군50</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>영동군134</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>옥천군82</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>음성군684</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>제천시488</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>증평군147</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>진천군627</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>청주시상당구592</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>청주시서원구891</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>청주시청원구515</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>청주시흥덕구834</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>충주시839</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>계룡시70</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>공주시300</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>금산군197</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>논산시632</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>당진시870</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>보령시258</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>부여군344</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>서산시696</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>서천군125</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>아산시1650</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>예산군191</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>천안시동남구1134</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>천안시서북구1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>청양군95</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>태안군175</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>홍성군235</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>고창군58</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>군산시703</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>김제시247</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>남원시133</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>무주군48</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>부안군115</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>순창군190</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>완주군206</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>익산시757</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>임실군33</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>장수군43</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>전주시덕진구57</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>전주시완산구1613</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>정읍시160</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>진안군34</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>강진군14</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>고흥군84</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>곡성군34</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>광양시293</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>구례군16</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>나주시184</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>담양군59</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>목포시258</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>무안군81</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>보성군30</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>순천시719</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>신안군26</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>여수시579</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>영광군37</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>영암군110</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>완도군84</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>장성군80</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>장흥군50</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>진도군57</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>함평군51</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>해남군65</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>화순군108</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>경산시1726</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>경주시1017</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>고령군90</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>구미시1328</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>군위군24</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>김천시534</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>문경시79</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>봉화군81</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>상주시190</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>성주군72</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>안동시333</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>영덕군49</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>영양군11</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>영주시191</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>영천시168</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>예천군103</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>울릉군13</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>울진군56</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>의성군207</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>청도군214</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>청송군64</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>칠곡군287</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>포항시남구601</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>포항시북구670</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>거제시892</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>거창군109</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>고성군110</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>김해시2455</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>남해군90</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>밀양시230</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>사천시420</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>산청군72</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>양산시948</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>의령군41</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>진주시1716</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>창녕군315</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>창원시마산합포구1031</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>창원시마산회원구91</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>창원시성산구736</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>창원시의창구831</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>창원시진해구394</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>통영시209</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>하동군115</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>함안군270</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>함양군85</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>합천군82</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>서귀포시535</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>제주시2313</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3941,7 +5704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5704,7 +7467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/covid_19_all/CovidCount.xlsx
+++ b/covid_19_all/CovidCount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Corona_korea_keep-distance김정웅\covid_19_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\Corona_korea_keep-distance\covid_19_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67825E83-79D2-4FD1-921A-2FBC5DE68AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E53CC-47F6-4489-A3F5-6427407A696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="14" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7965" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20211118" sheetId="1" r:id="rId1"/>
@@ -41965,7 +41965,7 @@
   <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
